--- a/02需求分析(RA)/一期系统/数据字典20190325.xlsx
+++ b/02需求分析(RA)/一期系统/数据字典20190325.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大数据\cxm\编码文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目文件\济南\水发天源\水发天源\trunk\02需求分析(RA)\一期系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B410DA-968E-457A-9790-4ACD1336A17A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D5B485-8592-4F58-9109-F74A70B22631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2430" yWindow="3045" windowWidth="18060" windowHeight="7875" firstSheet="8" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="采购计划" sheetId="1" r:id="rId1"/>
@@ -3460,22 +3460,22 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="54.44140625" customWidth="1"/>
-    <col min="7" max="7" width="41.33203125" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" customWidth="1"/>
-    <col min="13" max="13" width="17.88671875" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
-    <col min="20" max="20" width="54.44140625" customWidth="1"/>
-    <col min="22" max="22" width="13.44140625" customWidth="1"/>
-    <col min="27" max="27" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="54.5" customWidth="1"/>
+    <col min="7" max="7" width="41.375" customWidth="1"/>
+    <col min="8" max="8" width="21.125" customWidth="1"/>
+    <col min="13" max="13" width="17.875" customWidth="1"/>
+    <col min="15" max="15" width="17.875" customWidth="1"/>
+    <col min="20" max="20" width="54.5" customWidth="1"/>
+    <col min="22" max="22" width="13.5" customWidth="1"/>
+    <col min="27" max="27" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3487,7 +3487,7 @@
       <c r="F1" s="89"/>
       <c r="G1" s="90"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4156,14 +4156,14 @@
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="55" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="55" customWidth="1"/>
+    <col min="13" max="13" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4175,7 +4175,7 @@
       <c r="E1" s="92"/>
       <c r="F1" s="92"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>154</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>156</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>308</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>158</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>310</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>312</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>314</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>316</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>318</v>
       </c>
@@ -4348,7 +4348,7 @@
       <c r="K11" s="56"/>
       <c r="L11" s="56"/>
     </row>
-    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>320</v>
       </c>
@@ -4369,7 +4369,7 @@
       <c r="K12" s="56"/>
       <c r="L12" s="56"/>
     </row>
-    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>322</v>
       </c>
@@ -4390,7 +4390,7 @@
       <c r="K13" s="56"/>
       <c r="L13" s="56"/>
     </row>
-    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>324</v>
       </c>
@@ -4411,7 +4411,7 @@
       <c r="K14" s="56"/>
       <c r="L14" s="56"/>
     </row>
-    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>326</v>
       </c>
@@ -4432,7 +4432,7 @@
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
     </row>
-    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>328</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>330</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>332</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>333</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>335</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>337</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>339</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>341</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>343</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>345</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="49" t="s">
         <v>347</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>75</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -4676,7 +4676,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>2</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>351</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="32" t="s">
         <v>154</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="32" t="s">
         <v>18</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>23</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>26</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="32" t="s">
         <v>343</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="32" t="s">
         <v>345</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>70</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>72</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>75</v>
       </c>
@@ -4883,13 +4883,13 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4901,7 +4901,7 @@
       <c r="E1" s="92"/>
       <c r="F1" s="92"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
         <v>352</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
         <v>353</v>
       </c>
@@ -4986,7 +4986,7 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
         <v>354</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
         <v>355</v>
       </c>
@@ -5015,7 +5015,7 @@
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="36" t="s">
         <v>356</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="36" t="s">
         <v>357</v>
       </c>
@@ -5044,7 +5044,7 @@
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="36" t="s">
         <v>358</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="36" t="s">
         <v>359</v>
       </c>
@@ -5073,7 +5073,7 @@
       <c r="E12" s="40"/>
       <c r="F12" s="41"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="42" t="s">
         <v>79</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>361</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="44" t="s">
         <v>115</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="36" t="s">
         <v>365</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="36" t="s">
         <v>367</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="47" t="s">
         <v>369</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="49" t="s">
         <v>371</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>343</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>345</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>70</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="52" t="s">
         <v>72</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="52" t="s">
         <v>75</v>
       </c>
@@ -5322,8 +5322,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -5335,7 +5335,7 @@
       <c r="E29" s="92"/>
       <c r="F29" s="92"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="36" t="s">
         <v>374</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="36" t="s">
         <v>352</v>
       </c>
@@ -5383,7 +5383,7 @@
       <c r="E32" s="38"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="36" t="s">
         <v>353</v>
       </c>
@@ -5393,7 +5393,7 @@
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="36" t="s">
         <v>354</v>
       </c>
@@ -5405,7 +5405,7 @@
       <c r="E34" s="38"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="36" t="s">
         <v>355</v>
       </c>
@@ -5415,7 +5415,7 @@
       <c r="E35" s="38"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="36" t="s">
         <v>356</v>
       </c>
@@ -5427,7 +5427,7 @@
       <c r="E36" s="38"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="36" t="s">
         <v>357</v>
       </c>
@@ -5437,7 +5437,7 @@
       <c r="E37" s="38"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="36" t="s">
         <v>358</v>
       </c>
@@ -5449,7 +5449,7 @@
       <c r="E38" s="38"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="36" t="s">
         <v>359</v>
       </c>
@@ -5459,7 +5459,7 @@
       <c r="E39" s="40"/>
       <c r="F39" s="41"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="36" t="s">
         <v>72</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="36" t="s">
         <v>75</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="52" t="s">
         <v>0</v>
       </c>
@@ -5503,7 +5503,7 @@
       <c r="E43" s="102"/>
       <c r="F43" s="102"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="52" t="s">
         <v>2</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="52" t="s">
         <v>375</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="52" t="s">
         <v>18</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="52" t="s">
         <v>79</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="52" t="s">
         <v>377</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="52" t="s">
         <v>379</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="52" t="s">
         <v>381</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="52" t="s">
         <v>87</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A52" s="52" t="s">
         <v>384</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="52" t="s">
         <v>70</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="52" t="s">
         <v>72</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="52" t="s">
         <v>75</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -5725,7 +5725,7 @@
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
@@ -5753,17 +5753,17 @@
       <selection activeCell="B16" sqref="B16:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
-    <col min="10" max="11" width="9.21875" customWidth="1"/>
-    <col min="13" max="13" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="21.75" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="10" max="11" width="9.25" customWidth="1"/>
+    <col min="13" max="13" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5775,7 +5775,7 @@
       <c r="E1" s="92"/>
       <c r="F1" s="92"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>388</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>390</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>392</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>394</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>396</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="33" t="s">
         <v>398</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="33" t="s">
         <v>400</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="33" t="s">
         <v>402</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>70</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>72</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>75</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -5979,7 +5979,7 @@
       <c r="E16" s="92"/>
       <c r="F16" s="92"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="34" t="s">
         <v>2</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>406</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>388</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>79</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>409</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>70</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>72</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>75</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -6115,7 +6115,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -6123,7 +6123,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -6149,14 +6149,14 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6168,7 +6168,7 @@
       <c r="E1" s="92"/>
       <c r="F1" s="92"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
         <v>412</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>414</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>415</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>70</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>72</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>75</v>
       </c>
@@ -6297,14 +6297,14 @@
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6316,7 +6316,7 @@
       <c r="E1" s="92"/>
       <c r="F1" s="92"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>418</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>200</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>419</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
         <v>421</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
         <v>423</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>425</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>426</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>428</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>70</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>72</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>75</v>
       </c>
@@ -6526,15 +6526,15 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6546,7 +6546,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>431</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>79</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
         <v>433</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
@@ -6676,13 +6676,13 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="6" max="6" width="81.88671875" customWidth="1"/>
+    <col min="6" max="6" width="81.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6694,7 +6694,7 @@
       <c r="E1" s="92"/>
       <c r="F1" s="92"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>437</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
         <v>439</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="26" t="s">
         <v>256</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="27" t="s">
         <v>140</v>
       </c>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="G6" s="28"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="29" t="s">
         <v>442</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>79</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>179</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>154</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>156</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>158</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="30" t="s">
         <v>444</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="30" t="s">
         <v>446</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>448</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>450</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>451</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>452</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>160</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>431</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="20" t="s">
         <v>433</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>453</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>208</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>456</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
         <v>70</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>75</v>
       </c>
@@ -7242,15 +7242,15 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="6" max="6" width="46.77734375" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="46.75" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7262,7 +7262,7 @@
       <c r="E1" s="92"/>
       <c r="F1" s="92"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>442</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>79</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>461</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>463</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>465</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
         <v>99</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="23" t="s">
         <v>467</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
         <v>70</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>468</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>75</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -7480,7 +7480,7 @@
       <c r="E18" s="92"/>
       <c r="F18" s="92"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>470</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>442</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>431</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="20" t="s">
         <v>433</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>79</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>472</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>154</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>156</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>158</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>18</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>473</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>475</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>476</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>162</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
         <v>479</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
         <v>70</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
         <v>72</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
         <v>75</v>
       </c>
@@ -7873,13 +7873,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="39.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7891,7 +7891,7 @@
       <c r="E1" s="92"/>
       <c r="F1" s="92"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>412</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>79</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>461</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>484</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>486</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
         <v>99</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="23" t="s">
         <v>488</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>70</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
         <v>490</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>72</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>75</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -8103,7 +8103,7 @@
       <c r="E16" s="92"/>
       <c r="F16" s="92"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>492</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>412</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>494</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>431</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="20" t="s">
         <v>433</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>79</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>461</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>154</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>156</v>
       </c>
@@ -8287,7 +8287,7 @@
       </c>
       <c r="G26" s="98"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>158</v>
       </c>
@@ -8306,7 +8306,7 @@
       </c>
       <c r="G27" s="98"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>18</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>496</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>498</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>499</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
         <v>501</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>70</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>72</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
         <v>75</v>
       </c>
@@ -8509,14 +8509,14 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="39.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="39.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8528,7 +8528,7 @@
       <c r="E1" s="92"/>
       <c r="F1" s="92"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>653</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>635</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>636</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>637</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>638</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>639</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>640</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>641</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>642</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>643</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>644</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>645</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>646</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>506</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>508</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>510</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
         <v>649</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>650</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>647</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>648</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>75</v>
       </c>
@@ -8902,15 +8902,15 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8922,7 +8922,7 @@
       <c r="F1" s="89"/>
       <c r="G1" s="90"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -9248,19 +9248,19 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="3" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="3" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
-    <col min="14" max="14" width="22.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.5" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9281,7 +9281,7 @@
       <c r="O1" s="21"/>
       <c r="P1" s="21"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -9310,7 +9310,7 @@
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>516</v>
       </c>
@@ -9337,7 +9337,7 @@
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>79</v>
       </c>
@@ -9364,7 +9364,7 @@
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>431</v>
       </c>
@@ -9391,7 +9391,7 @@
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>504</v>
       </c>
@@ -9418,7 +9418,7 @@
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>519</v>
       </c>
@@ -9445,7 +9445,7 @@
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>521</v>
       </c>
@@ -9472,7 +9472,7 @@
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>523</v>
       </c>
@@ -9499,7 +9499,7 @@
       <c r="O9" s="21"/>
       <c r="P9" s="24"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>525</v>
       </c>
@@ -9526,7 +9526,7 @@
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>527</v>
       </c>
@@ -9551,7 +9551,7 @@
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="22" t="s">
         <v>99</v>
       </c>
@@ -9576,7 +9576,7 @@
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="23" t="s">
         <v>528</v>
       </c>
@@ -9599,7 +9599,7 @@
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>70</v>
       </c>
@@ -9626,7 +9626,7 @@
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>72</v>
       </c>
@@ -9649,7 +9649,7 @@
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
     </row>
-    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>75</v>
       </c>
@@ -9672,7 +9672,7 @@
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
@@ -9683,7 +9683,7 @@
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
@@ -9694,7 +9694,7 @@
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
@@ -9705,7 +9705,7 @@
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
@@ -9716,7 +9716,7 @@
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
@@ -9727,7 +9727,7 @@
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
@@ -9738,7 +9738,7 @@
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -9759,7 +9759,7 @@
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>2</v>
       </c>
@@ -9788,7 +9788,7 @@
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>652</v>
       </c>
@@ -9815,7 +9815,7 @@
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>633</v>
       </c>
@@ -9842,7 +9842,7 @@
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>79</v>
       </c>
@@ -9869,7 +9869,7 @@
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>431</v>
       </c>
@@ -9896,7 +9896,7 @@
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>504</v>
       </c>
@@ -9923,7 +9923,7 @@
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>154</v>
       </c>
@@ -9950,7 +9950,7 @@
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>156</v>
       </c>
@@ -9975,7 +9975,7 @@
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>158</v>
       </c>
@@ -10002,7 +10002,7 @@
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>18</v>
       </c>
@@ -10029,7 +10029,7 @@
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
@@ -10056,7 +10056,7 @@
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
     </row>
-    <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
@@ -10083,7 +10083,7 @@
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>26</v>
       </c>
@@ -10108,7 +10108,7 @@
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>530</v>
       </c>
@@ -10135,7 +10135,7 @@
       <c r="O37" s="21"/>
       <c r="P37" s="21"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>650</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
         <v>651</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="14" t="s">
         <v>656</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
         <v>527</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
         <v>70</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
         <v>72</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
         <v>75</v>
       </c>
@@ -10263,17 +10263,17 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10285,7 +10285,7 @@
       <c r="E1" s="92"/>
       <c r="F1" s="92"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>535</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>431</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
         <v>433</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>537</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>539</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>541</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -10430,7 +10430,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>451</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>452</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>543</v>
       </c>
@@ -10536,7 +10536,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
         <v>544</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>70</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>72</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>75</v>
       </c>
@@ -10615,16 +10615,16 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10636,7 +10636,7 @@
       <c r="E1" s="92"/>
       <c r="F1" s="92"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>546</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>431</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
         <v>433</v>
       </c>
@@ -10708,7 +10708,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>537</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>539</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>541</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>496</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>498</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>499</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
         <v>549</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>70</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>72</v>
       </c>
@@ -10933,7 +10933,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>75</v>
       </c>
@@ -10964,16 +10964,16 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10985,7 +10985,7 @@
       <c r="E1" s="92"/>
       <c r="F1" s="92"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>551</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>553</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>555</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>557</v>
       </c>
@@ -11077,7 +11077,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>324</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>559</v>
       </c>
@@ -11109,7 +11109,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>560</v>
       </c>
@@ -11125,7 +11125,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>561</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>562</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>563</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>564</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>565</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
         <v>566</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>70</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>343</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>72</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>75</v>
       </c>
@@ -11300,15 +11300,15 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11320,7 +11320,7 @@
       <c r="E1" s="92"/>
       <c r="F1" s="92"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>569</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>571</v>
       </c>
@@ -11374,7 +11374,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>553</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>555</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>573</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>575</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>577</v>
       </c>
@@ -11458,7 +11458,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>578</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>579</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>70</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>343</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>72</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>75</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -11568,7 +11568,7 @@
       <c r="E19" s="92"/>
       <c r="F19" s="92"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
@@ -11588,7 +11588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>581</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>569</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>551</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="17" t="s">
         <v>582</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>70</v>
       </c>
@@ -11674,7 +11674,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>343</v>
       </c>
@@ -11692,7 +11692,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>72</v>
       </c>
@@ -11708,7 +11708,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>75</v>
       </c>
@@ -11740,17 +11740,17 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="44.21875" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="44.25" customWidth="1"/>
+    <col min="7" max="7" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11762,7 +11762,7 @@
       <c r="E1" s="92"/>
       <c r="F1" s="92"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>584</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>113</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>551</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>557</v>
       </c>
@@ -11869,7 +11869,7 @@
       </c>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>586</v>
       </c>
@@ -11888,7 +11888,7 @@
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>588</v>
       </c>
@@ -11907,7 +11907,7 @@
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>590</v>
       </c>
@@ -11926,7 +11926,7 @@
       </c>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>66</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>592</v>
       </c>
@@ -11958,7 +11958,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>569</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>573</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>575</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>596</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>597</v>
       </c>
@@ -12047,7 +12047,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>600</v>
       </c>
@@ -12061,7 +12061,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>70</v>
       </c>
@@ -12079,7 +12079,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>72</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>75</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -12121,7 +12121,7 @@
       <c r="E28" s="92"/>
       <c r="F28" s="92"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>2</v>
       </c>
@@ -12141,7 +12141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>602</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>584</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>23</v>
       </c>
@@ -12231,7 +12231,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>179</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>604</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
         <v>606</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>596</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>134</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="14" t="s">
         <v>630</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A41" s="15" t="s">
         <v>70</v>
       </c>
@@ -12349,7 +12349,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>72</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>75</v>
       </c>
@@ -12395,18 +12395,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12418,7 +12418,7 @@
       <c r="E1" s="92"/>
       <c r="F1" s="92"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>609</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>602</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>113</v>
       </c>
@@ -12490,7 +12490,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -12508,7 +12508,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>179</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>611</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>612</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>613</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>615</v>
       </c>
@@ -12628,7 +12628,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>617</v>
       </c>
@@ -12644,7 +12644,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>586</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>588</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>590</v>
       </c>
@@ -12692,7 +12692,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>619</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>621</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>70</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>72</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>75</v>
       </c>
@@ -12784,18 +12784,18 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
-    <col min="6" max="6" width="51.109375" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
-    <col min="13" max="13" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="23.25" customWidth="1"/>
+    <col min="6" max="6" width="51.125" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="13" max="13" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12807,7 +12807,7 @@
       <c r="E1" s="89"/>
       <c r="F1" s="90"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -12827,7 +12827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>93</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="76" t="s">
         <v>95</v>
       </c>
@@ -12864,7 +12864,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>79</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
         <v>99</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>66</v>
       </c>
@@ -12916,7 +12916,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>102</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>104</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>105</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
         <v>106</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>108</v>
       </c>
@@ -12998,7 +12998,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
         <v>70</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>75</v>
       </c>
@@ -13048,7 +13048,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -13060,7 +13060,7 @@
       <c r="E18" s="92"/>
       <c r="F18" s="92"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
@@ -13080,7 +13080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>111</v>
       </c>
@@ -13098,7 +13098,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>93</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
         <v>113</v>
       </c>
@@ -13130,7 +13130,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>79</v>
       </c>
@@ -13149,7 +13149,7 @@
       </c>
       <c r="H23" s="81"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
@@ -13168,7 +13168,7 @@
       </c>
       <c r="H24" s="81"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="86" t="s">
         <v>662</v>
       </c>
@@ -13187,7 +13187,7 @@
       </c>
       <c r="H25" s="81"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -13206,7 +13206,7 @@
       </c>
       <c r="H26" s="81"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="76" t="s">
         <v>115</v>
       </c>
@@ -13226,7 +13226,7 @@
       </c>
       <c r="H27" s="81"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -13243,7 +13243,7 @@
       </c>
       <c r="H28" s="81"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>62</v>
       </c>
@@ -13262,7 +13262,7 @@
       </c>
       <c r="H29" s="81"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>118</v>
       </c>
@@ -13279,7 +13279,7 @@
       </c>
       <c r="H30" s="81"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>120</v>
       </c>
@@ -13296,7 +13296,7 @@
       </c>
       <c r="H31" s="81"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>122</v>
       </c>
@@ -13315,7 +13315,7 @@
       </c>
       <c r="H32" s="81"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>124</v>
       </c>
@@ -13334,7 +13334,7 @@
       </c>
       <c r="H33" s="81"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>125</v>
       </c>
@@ -13353,7 +13353,7 @@
       </c>
       <c r="H34" s="81"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>127</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
@@ -13389,7 +13389,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>128</v>
       </c>
@@ -13405,7 +13405,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>131</v>
       </c>
@@ -13421,7 +13421,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>102</v>
       </c>
@@ -13439,7 +13439,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
         <v>134</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>136</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>137</v>
       </c>
@@ -13491,7 +13491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
         <v>108</v>
       </c>
@@ -13507,7 +13507,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A44" s="15" t="s">
         <v>70</v>
       </c>
@@ -13525,7 +13525,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>72</v>
       </c>
@@ -13541,7 +13541,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>75</v>
       </c>
@@ -13572,19 +13572,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" customWidth="1"/>
-    <col min="6" max="6" width="73.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="73.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13596,7 +13596,7 @@
       <c r="E1" s="89"/>
       <c r="F1" s="90"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>140</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
         <v>111</v>
       </c>
@@ -13652,7 +13652,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="38" t="s">
         <v>93</v>
       </c>
@@ -13673,7 +13673,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="76" t="s">
         <v>143</v>
       </c>
@@ -13692,7 +13692,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>79</v>
       </c>
@@ -13710,7 +13710,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>146</v>
       </c>
@@ -13726,7 +13726,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -13762,7 +13762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -13780,7 +13780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -13796,7 +13796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>62</v>
       </c>
@@ -13814,7 +13814,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>148</v>
       </c>
@@ -13832,7 +13832,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>149</v>
       </c>
@@ -13850,7 +13850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>150</v>
       </c>
@@ -13868,7 +13868,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>151</v>
       </c>
@@ -13886,7 +13886,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -13904,7 +13904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>128</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>102</v>
       </c>
@@ -13938,7 +13938,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>134</v>
       </c>
@@ -13956,7 +13956,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>153</v>
       </c>
@@ -13972,7 +13972,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>154</v>
       </c>
@@ -13988,7 +13988,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>156</v>
       </c>
@@ -14004,7 +14004,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>158</v>
       </c>
@@ -14020,7 +14020,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="33" t="s">
         <v>160</v>
       </c>
@@ -14036,7 +14036,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>162</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>164</v>
       </c>
@@ -14068,7 +14068,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>166</v>
       </c>
@@ -14084,7 +14084,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
         <v>108</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A31" s="15" t="s">
         <v>70</v>
       </c>
@@ -14118,7 +14118,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
@@ -14136,7 +14136,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>75</v>
       </c>
@@ -14154,7 +14154,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>170</v>
       </c>
@@ -14183,19 +14183,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F30" sqref="A30:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14207,7 +14207,7 @@
       <c r="E1" s="89"/>
       <c r="F1" s="90"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -14227,7 +14227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>173</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
         <v>111</v>
       </c>
@@ -14281,7 +14281,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="76" t="s">
         <v>176</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="77" t="s">
         <v>79</v>
       </c>
@@ -14317,7 +14317,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>154</v>
       </c>
@@ -14334,7 +14334,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>156</v>
       </c>
@@ -14350,7 +14350,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>158</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -14386,7 +14386,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -14404,7 +14404,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -14422,7 +14422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>179</v>
       </c>
@@ -14438,7 +14438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>148</v>
       </c>
@@ -14456,7 +14456,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>149</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>150</v>
       </c>
@@ -14492,7 +14492,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>151</v>
       </c>
@@ -14510,7 +14510,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>180</v>
       </c>
@@ -14544,7 +14544,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>128</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>182</v>
       </c>
@@ -14576,7 +14576,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>184</v>
       </c>
@@ -14594,7 +14594,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>186</v>
       </c>
@@ -14612,7 +14612,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>188</v>
       </c>
@@ -14630,7 +14630,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>191</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>193</v>
       </c>
@@ -14680,7 +14680,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>194</v>
       </c>
@@ -14698,7 +14698,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="78" t="s">
         <v>160</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A31" s="68" t="s">
         <v>70</v>
       </c>
@@ -14733,7 +14733,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
@@ -14749,7 +14749,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>75</v>
       </c>
@@ -14782,14 +14782,14 @@
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="3" width="9.21875" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="3" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14801,7 +14801,7 @@
       <c r="E1" s="89"/>
       <c r="F1" s="90"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -14821,7 +14821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>162</v>
       </c>
@@ -14839,7 +14839,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>200</v>
       </c>
@@ -14855,7 +14855,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>202</v>
       </c>
@@ -14873,7 +14873,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>79</v>
       </c>
@@ -14891,7 +14891,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>154</v>
       </c>
@@ -14909,7 +14909,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>156</v>
       </c>
@@ -14925,7 +14925,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>158</v>
       </c>
@@ -14943,7 +14943,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -14961,7 +14961,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -14979,7 +14979,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -14997,7 +14997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>179</v>
       </c>
@@ -15013,7 +15013,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>205</v>
       </c>
@@ -15027,7 +15027,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>206</v>
       </c>
@@ -15041,7 +15041,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>208</v>
       </c>
@@ -15057,7 +15057,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="24" t="s">
         <v>210</v>
       </c>
@@ -15071,7 +15071,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A18" s="68" t="s">
         <v>70</v>
       </c>
@@ -15089,7 +15089,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
@@ -15105,7 +15105,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>75</v>
       </c>
@@ -15121,7 +15121,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -15129,7 +15129,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -15144,7 +15144,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
@@ -15164,7 +15164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="47" t="s">
         <v>214</v>
       </c>
@@ -15182,7 +15182,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="37" t="s">
         <v>18</v>
       </c>
@@ -15200,7 +15200,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="47" t="s">
         <v>216</v>
       </c>
@@ -15218,7 +15218,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="73" t="s">
         <v>218</v>
       </c>
@@ -15230,7 +15230,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A30" s="74" t="s">
         <v>70</v>
       </c>
@@ -15248,7 +15248,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="47" t="s">
         <v>72</v>
       </c>
@@ -15264,7 +15264,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="47" t="s">
         <v>75</v>
       </c>
@@ -15280,7 +15280,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -15295,7 +15295,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>2</v>
       </c>
@@ -15315,7 +15315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="47" t="s">
         <v>221</v>
       </c>
@@ -15333,7 +15333,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="47" t="s">
         <v>162</v>
       </c>
@@ -15351,7 +15351,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="47" t="s">
         <v>214</v>
       </c>
@@ -15369,7 +15369,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="47" t="s">
         <v>216</v>
       </c>
@@ -15387,7 +15387,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="47" t="s">
         <v>218</v>
       </c>
@@ -15403,7 +15403,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="47" t="s">
         <v>223</v>
       </c>
@@ -15419,7 +15419,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A43" s="75" t="s">
         <v>70</v>
       </c>
@@ -15437,7 +15437,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="47" t="s">
         <v>72</v>
       </c>
@@ -15453,7 +15453,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="47" t="s">
         <v>75</v>
       </c>
@@ -15484,21 +15484,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="45.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="45.875" customWidth="1"/>
     <col min="7" max="7" width="38" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
-    <col min="13" max="13" width="22.21875" customWidth="1"/>
+    <col min="8" max="8" width="20.375" customWidth="1"/>
+    <col min="13" max="13" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15510,7 +15510,7 @@
       <c r="E1" s="92"/>
       <c r="F1" s="92"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -15530,7 +15530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="66" t="s">
         <v>226</v>
       </c>
@@ -15547,7 +15547,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
@@ -15561,7 +15561,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>228</v>
       </c>
@@ -15579,7 +15579,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>230</v>
       </c>
@@ -15597,7 +15597,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>232</v>
       </c>
@@ -15615,7 +15615,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>154</v>
       </c>
@@ -15633,7 +15633,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>156</v>
       </c>
@@ -15649,7 +15649,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>158</v>
       </c>
@@ -15666,7 +15666,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>234</v>
       </c>
@@ -15685,7 +15685,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="67" t="s">
         <v>186</v>
       </c>
@@ -15702,7 +15702,7 @@
       </c>
       <c r="G12" s="98"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="67" t="s">
         <v>236</v>
       </c>
@@ -15719,7 +15719,7 @@
       </c>
       <c r="G13" s="98"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="67" t="s">
         <v>238</v>
       </c>
@@ -15736,7 +15736,7 @@
       </c>
       <c r="G14" s="98"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="67" t="s">
         <v>240</v>
       </c>
@@ -15752,7 +15752,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>242</v>
       </c>
@@ -15770,7 +15770,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -15788,7 +15788,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>208</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>108</v>
       </c>
@@ -15822,7 +15822,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>246</v>
       </c>
@@ -15838,7 +15838,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A21" s="68" t="s">
         <v>70</v>
       </c>
@@ -15856,7 +15856,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>72</v>
       </c>
@@ -15872,7 +15872,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>75</v>
       </c>
@@ -15888,7 +15888,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="69" t="s">
         <v>0</v>
       </c>
@@ -15903,7 +15903,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="69" t="s">
         <v>2</v>
       </c>
@@ -15923,7 +15923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="69" t="s">
         <v>248</v>
       </c>
@@ -15939,7 +15939,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="69" t="s">
         <v>226</v>
       </c>
@@ -15955,7 +15955,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="69" t="s">
         <v>228</v>
       </c>
@@ -15971,7 +15971,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="69" t="s">
         <v>18</v>
       </c>
@@ -15987,7 +15987,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="69" t="s">
         <v>20</v>
       </c>
@@ -16003,7 +16003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="69" t="s">
         <v>23</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="69" t="s">
         <v>179</v>
       </c>
@@ -16035,7 +16035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="44" t="s">
         <v>154</v>
       </c>
@@ -16051,7 +16051,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="44" t="s">
         <v>156</v>
       </c>
@@ -16067,7 +16067,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="44" t="s">
         <v>158</v>
       </c>
@@ -16083,7 +16083,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="69" t="s">
         <v>148</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="69" t="s">
         <v>149</v>
       </c>
@@ -16115,7 +16115,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="69" t="s">
         <v>150</v>
       </c>
@@ -16131,7 +16131,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="69" t="s">
         <v>151</v>
       </c>
@@ -16147,7 +16147,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="69" t="s">
         <v>32</v>
       </c>
@@ -16163,7 +16163,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="69" t="s">
         <v>186</v>
       </c>
@@ -16179,7 +16179,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="69" t="s">
         <v>236</v>
       </c>
@@ -16195,7 +16195,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="69" t="s">
         <v>238</v>
       </c>
@@ -16211,7 +16211,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="69" t="s">
         <v>240</v>
       </c>
@@ -16227,7 +16227,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="69" t="s">
         <v>66</v>
       </c>
@@ -16243,7 +16243,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="69" t="s">
         <v>108</v>
       </c>
@@ -16259,7 +16259,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="69" t="s">
         <v>208</v>
       </c>
@@ -16275,7 +16275,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A49" s="70" t="s">
         <v>70</v>
       </c>
@@ -16293,7 +16293,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="69" t="s">
         <v>72</v>
       </c>
@@ -16309,7 +16309,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="69" t="s">
         <v>75</v>
       </c>
@@ -16325,7 +16325,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="20" t="s">
         <v>0</v>
       </c>
@@ -16337,7 +16337,7 @@
       <c r="E53" s="96"/>
       <c r="F53" s="96"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="20" t="s">
         <v>2</v>
       </c>
@@ -16357,7 +16357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="20" t="s">
         <v>252</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="20" t="s">
         <v>226</v>
       </c>
@@ -16393,7 +16393,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="20" t="s">
         <v>140</v>
       </c>
@@ -16411,7 +16411,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="71" t="s">
         <v>208</v>
       </c>
@@ -16427,7 +16427,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A59" s="72" t="s">
         <v>70</v>
       </c>
@@ -16445,7 +16445,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="20" t="s">
         <v>72</v>
       </c>
@@ -16461,7 +16461,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="20" t="s">
         <v>75</v>
       </c>
@@ -16498,14 +16498,14 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" customWidth="1"/>
-    <col min="7" max="7" width="35.88671875" customWidth="1"/>
+    <col min="6" max="6" width="33.625" customWidth="1"/>
+    <col min="7" max="7" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16517,7 +16517,7 @@
       <c r="E1" s="92"/>
       <c r="F1" s="92"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -16537,7 +16537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>256</v>
       </c>
@@ -16555,7 +16555,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
         <v>226</v>
       </c>
@@ -16571,7 +16571,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="25" t="s">
         <v>228</v>
       </c>
@@ -16588,7 +16588,7 @@
       </c>
       <c r="G5" s="62"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="63" t="s">
         <v>248</v>
       </c>
@@ -16607,7 +16607,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="38" t="s">
         <v>140</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>154</v>
       </c>
@@ -16646,7 +16646,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>156</v>
       </c>
@@ -16662,7 +16662,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>158</v>
       </c>
@@ -16680,7 +16680,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -16698,7 +16698,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -16716,7 +16716,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -16734,7 +16734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>179</v>
       </c>
@@ -16750,7 +16750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>259</v>
       </c>
@@ -16768,7 +16768,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>260</v>
       </c>
@@ -16786,7 +16786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>261</v>
       </c>
@@ -16804,7 +16804,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>262</v>
       </c>
@@ -16822,7 +16822,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -16840,7 +16840,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>263</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>265</v>
       </c>
@@ -16872,7 +16872,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>267</v>
       </c>
@@ -16888,7 +16888,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>128</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="63" t="s">
         <v>270</v>
       </c>
@@ -16921,7 +16921,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="65" t="s">
         <v>160</v>
       </c>
@@ -16938,7 +16938,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>272</v>
       </c>
@@ -16959,7 +16959,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>208</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>275</v>
       </c>
@@ -16993,7 +16993,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>276</v>
       </c>
@@ -17010,7 +17010,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
         <v>70</v>
       </c>
@@ -17028,7 +17028,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>72</v>
       </c>
@@ -17044,7 +17044,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>75</v>
       </c>
@@ -17078,15 +17078,15 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="34.5" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="13" max="13" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -17098,7 +17098,7 @@
       <c r="E1" s="99"/>
       <c r="F1" s="100"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="60" t="s">
         <v>2</v>
       </c>
@@ -17118,7 +17118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>280</v>
       </c>
@@ -17136,7 +17136,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>200</v>
       </c>
@@ -17154,7 +17154,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>282</v>
       </c>
@@ -17170,7 +17170,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="61" t="s">
         <v>99</v>
       </c>
@@ -17186,7 +17186,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="61" t="s">
         <v>285</v>
       </c>
@@ -17204,7 +17204,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="61" t="s">
         <v>287</v>
       </c>
@@ -17220,7 +17220,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>289</v>
       </c>
@@ -17236,7 +17236,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>291</v>
       </c>
@@ -17252,7 +17252,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>293</v>
       </c>
@@ -17270,7 +17270,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>72</v>
       </c>
@@ -17286,7 +17286,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
@@ -17298,7 +17298,7 @@
       <c r="E15" s="58"/>
       <c r="F15" s="59"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="60" t="s">
         <v>2</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>297</v>
       </c>
@@ -17334,7 +17334,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>200</v>
       </c>
@@ -17350,7 +17350,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>298</v>
       </c>
@@ -17366,7 +17366,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>300</v>
       </c>
@@ -17382,7 +17382,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>302</v>
       </c>
@@ -17398,7 +17398,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>304</v>
       </c>
@@ -17414,7 +17414,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>70</v>
       </c>
@@ -17430,7 +17430,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>72</v>
       </c>
